--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject29.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject29.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -143,13 +143,13 @@
         <v>0</v>
       </c>
       <c r="F1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1" s="0">
         <v>0</v>
       </c>
       <c r="H1" s="0">
-        <v>0</v>
+        <v>0.79505295149136068</v>
       </c>
       <c r="I1" s="0">
         <v>0</v>
@@ -167,10 +167,10 @@
         <v>0</v>
       </c>
       <c r="N1" s="0">
-        <v>0</v>
+        <v>0.84508111148025544</v>
       </c>
       <c r="O1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1" s="0">
         <v>0</v>
@@ -179,7 +179,7 @@
         <v>0</v>
       </c>
       <c r="R1" s="0">
-        <v>0</v>
+        <v>0.60247959929569395</v>
       </c>
       <c r="S1" s="0">
         <v>0</v>
@@ -209,7 +209,7 @@
         <v>0</v>
       </c>
       <c r="AB1" s="0">
-        <v>0</v>
+        <v>0.89810617745105514</v>
       </c>
       <c r="AC1" s="0">
         <v>0</v>
@@ -224,7 +224,7 @@
         <v>0</v>
       </c>
       <c r="AG1" s="0">
-        <v>0</v>
+        <v>0.52544297446263544</v>
       </c>
       <c r="AH1" s="0">
         <v>0</v>
@@ -236,7 +236,7 @@
         <v>0</v>
       </c>
       <c r="AK1" s="0">
-        <v>0</v>
+        <v>0.62706863474731822</v>
       </c>
       <c r="AL1" s="0">
         <v>0</v>
@@ -266,7 +266,7 @@
         <v>0</v>
       </c>
       <c r="AU1" s="0">
-        <v>0</v>
+        <v>0.92268783182265934</v>
       </c>
       <c r="AV1" s="0">
         <v>0</v>
@@ -284,7 +284,7 @@
         <v>0</v>
       </c>
       <c r="BA1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB1" s="0">
         <v>0</v>
@@ -293,7 +293,7 @@
         <v>0</v>
       </c>
       <c r="BD1" s="0">
-        <v>0</v>
+        <v>0.66058247138005455</v>
       </c>
       <c r="BE1" s="0">
         <v>0</v>
@@ -320,7 +320,7 @@
         <v>0</v>
       </c>
       <c r="BM1" s="0">
-        <v>0</v>
+        <v>0.6217602196782277</v>
       </c>
       <c r="BN1" s="0">
         <v>0</v>
@@ -352,7 +352,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="0">
-        <v>0</v>
+        <v>0.62084769828431252</v>
       </c>
       <c r="H2" s="0">
         <v>0</v>
@@ -361,7 +361,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="0">
         <v>0</v>
@@ -421,13 +421,13 @@
         <v>0</v>
       </c>
       <c r="AD2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="0">
         <v>0</v>
       </c>
       <c r="AF2" s="0">
-        <v>0</v>
+        <v>0.63460423083447515</v>
       </c>
       <c r="AG2" s="0">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="AM2" s="0">
-        <v>1</v>
+        <v>0.92542940240141391</v>
       </c>
       <c r="AN2" s="0">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="AP2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ2" s="0">
         <v>0</v>
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="AZ2" s="0">
-        <v>0</v>
+        <v>0.6502169357733939</v>
       </c>
       <c r="BA2" s="0">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.87890192375165155</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="0">
-        <v>0</v>
+        <v>0.50954367632698394</v>
       </c>
       <c r="P3" s="0">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="AH3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3" s="0">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="AX3" s="0">
-        <v>0</v>
+        <v>0.65260278045940379</v>
       </c>
       <c r="AY3" s="0">
         <v>0</v>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="BJ3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK3" s="0">
         <v>0</v>
@@ -770,13 +770,13 @@
         <v>0</v>
       </c>
       <c r="I4" s="0">
-        <v>0</v>
+        <v>0.61997891956750872</v>
       </c>
       <c r="J4" s="0">
         <v>0</v>
       </c>
       <c r="K4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="0">
         <v>0</v>
@@ -848,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="AI4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="0">
         <v>0</v>
       </c>
       <c r="AK4" s="0">
-        <v>0</v>
+        <v>0.7333730426020596</v>
       </c>
       <c r="AL4" s="0">
         <v>0</v>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="AO4" s="0">
-        <v>0</v>
+        <v>0.97129321323421669</v>
       </c>
       <c r="AP4" s="0">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="BF4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="0">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="BI4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ4" s="0">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="BM4" s="0">
-        <v>0</v>
+        <v>0.61722279799392177</v>
       </c>
       <c r="BN4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.84826373367253538</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0</v>
+        <v>0.51309470238209887</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="0">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Y5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="0">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="AZ5" s="0">
-        <v>0</v>
+        <v>0.70338176044152201</v>
       </c>
       <c r="BA5" s="0">
         <v>0</v>
       </c>
       <c r="BB5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC5" s="0">
         <v>0</v>
@@ -1123,13 +1123,13 @@
         <v>0</v>
       </c>
       <c r="BF5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG5" s="0">
         <v>0</v>
       </c>
       <c r="BH5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="0">
         <v>0</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="0">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>0.74781636869155166</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1191,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="0">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="0">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="AQ6" s="0">
-        <v>0</v>
+        <v>0.90839485315536073</v>
       </c>
       <c r="AR6" s="0">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="BH6" s="0">
-        <v>0</v>
+        <v>0.75299567864622308</v>
       </c>
       <c r="BI6" s="0">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="BK6" s="0">
-        <v>0</v>
+        <v>0.82561280603923382</v>
       </c>
       <c r="BL6" s="0">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="0">
-        <v>0</v>
+        <v>0.84038372785456383</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0</v>
+        <v>0.87870502248583038</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="0">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="0">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="AT7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="0">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="AW7" s="0">
-        <v>0</v>
+        <v>0.86467417129555357</v>
       </c>
       <c r="AX7" s="0">
         <v>0</v>
@@ -1520,10 +1520,10 @@
         <v>0</v>
       </c>
       <c r="BA7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="0">
-        <v>0</v>
+        <v>0.74375241230727895</v>
       </c>
       <c r="BC7" s="0">
         <v>0</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0</v>
+        <v>0.82457518239957484</v>
       </c>
       <c r="B8" s="0">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>0</v>
+        <v>0.98288141123843376</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -1612,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="O8" s="0">
-        <v>0</v>
+        <v>0.69469823420101617</v>
       </c>
       <c r="P8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="0">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="0">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="AE8" s="0">
-        <v>0</v>
+        <v>0.57816813369627673</v>
       </c>
       <c r="AF8" s="0">
         <v>0</v>
@@ -1726,13 +1726,13 @@
         <v>0</v>
       </c>
       <c r="BA8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="0">
         <v>0</v>
       </c>
       <c r="BC8" s="0">
-        <v>0</v>
+        <v>0.7833586403172732</v>
       </c>
       <c r="BD8" s="0">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0</v>
+        <v>0.71085114913570413</v>
       </c>
       <c r="E9" s="0">
         <v>0</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0</v>
+        <v>0.98094935249477055</v>
       </c>
       <c r="K9" s="0">
-        <v>0</v>
+        <v>0.54952613435773401</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="0">
-        <v>1</v>
+        <v>0.70301393539443757</v>
       </c>
       <c r="Q9" s="0">
         <v>0</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="V9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" s="0">
         <v>0</v>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="0">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="BD9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE9" s="0">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="BL9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM9" s="0">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="BO9" s="0">
-        <v>0</v>
+        <v>0.88090956476533355</v>
       </c>
       <c r="BP9" s="0">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="0">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>0</v>
+        <v>0.84928950947981141</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="0">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="0">
-        <v>0</v>
+        <v>0.71304757366654137</v>
       </c>
       <c r="V10" s="0">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="AZ10" s="0">
-        <v>0</v>
+        <v>0.65687268867189563</v>
       </c>
       <c r="BA10" s="0">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="BO10" s="0">
-        <v>0</v>
+        <v>0.95107946012329458</v>
       </c>
       <c r="BP10" s="0">
         <v>0</v>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0</v>
+        <v>0.53709190850421362</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="0">
         <v>0</v>
@@ -2278,10 +2278,10 @@
         <v>0</v>
       </c>
       <c r="AE11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="0">
-        <v>0</v>
+        <v>0.62804651825040458</v>
       </c>
       <c r="AG11" s="0">
         <v>0</v>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="BA11" s="0">
-        <v>0</v>
+        <v>0.74072541265801917</v>
       </c>
       <c r="BB11" s="0">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="BG11" s="0">
-        <v>0</v>
+        <v>0.51868348807493914</v>
       </c>
       <c r="BH11" s="0">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
@@ -2430,10 +2430,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0</v>
+        <v>0.53960802421882836</v>
       </c>
       <c r="N12" s="0">
-        <v>0</v>
+        <v>0.99543164108131599</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="0">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="AM12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="0">
         <v>0</v>
@@ -2550,10 +2550,10 @@
         <v>0</v>
       </c>
       <c r="BA12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="0">
-        <v>0</v>
+        <v>0.92701258394531894</v>
       </c>
       <c r="BC12" s="0">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="0">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>0</v>
+        <v>0.93644195258038732</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2696,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="AG13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="0">
-        <v>0</v>
+        <v>0.8698347009139672</v>
       </c>
       <c r="AI13" s="0">
         <v>0</v>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="AV13" s="0">
-        <v>1</v>
+        <v>0.86446211315092492</v>
       </c>
       <c r="AW13" s="0">
         <v>0</v>
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="BI13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ13" s="0">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="BO13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP13" s="0">
         <v>0</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0</v>
+        <v>0.77216797575791485</v>
       </c>
       <c r="B14" s="0">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0</v>
+        <v>0.77604556052893514</v>
       </c>
       <c r="M14" s="0">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="0">
-        <v>0</v>
+        <v>0.98023032139934574</v>
       </c>
       <c r="AJ14" s="0">
         <v>0</v>
@@ -2929,13 +2929,13 @@
         <v>0</v>
       </c>
       <c r="AP14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ14" s="0">
         <v>0</v>
       </c>
       <c r="AR14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS14" s="0">
         <v>0</v>
@@ -2953,13 +2953,13 @@
         <v>0</v>
       </c>
       <c r="AX14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="0">
         <v>0</v>
       </c>
       <c r="AZ14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="0">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="BC14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="0">
         <v>0</v>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="BG14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH14" s="0">
         <v>0</v>
@@ -3012,13 +3012,13 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="0">
         <v>0</v>
       </c>
       <c r="C15" s="0">
-        <v>0</v>
+        <v>0.91163922004679454</v>
       </c>
       <c r="D15" s="0">
         <v>0</v>
@@ -3033,13 +3033,13 @@
         <v>0</v>
       </c>
       <c r="H15" s="0">
-        <v>0</v>
+        <v>0.57441582558417581</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="0">
         <v>0</v>
@@ -3057,10 +3057,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="0">
-        <v>0</v>
+        <v>0.52496536649910186</v>
       </c>
       <c r="AA15" s="0">
         <v>0</v>
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="BE15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF15" s="0">
         <v>0</v>
@@ -3239,10 +3239,10 @@
         <v>0</v>
       </c>
       <c r="H16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="0">
-        <v>1</v>
+        <v>0.79591540846234587</v>
       </c>
       <c r="J16" s="0">
         <v>0</v>
@@ -3260,13 +3260,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0</v>
+        <v>0.66472836737092811</v>
       </c>
       <c r="R16" s="0">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="0">
-        <v>0</v>
+        <v>0.50349607971785426</v>
       </c>
       <c r="Y16" s="0">
         <v>0</v>
@@ -3317,19 +3317,19 @@
         <v>0</v>
       </c>
       <c r="AH16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI16" s="0">
         <v>0</v>
       </c>
       <c r="AJ16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="0">
         <v>0</v>
       </c>
       <c r="AL16" s="0">
-        <v>0</v>
+        <v>0.84494078763214953</v>
       </c>
       <c r="AM16" s="0">
         <v>0</v>
@@ -3344,13 +3344,13 @@
         <v>0</v>
       </c>
       <c r="AQ16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR16" s="0">
         <v>0</v>
       </c>
       <c r="AS16" s="0">
-        <v>0</v>
+        <v>0.78798596958759504</v>
       </c>
       <c r="AT16" s="0">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="AX16" s="0">
-        <v>0</v>
+        <v>0.76755012624316721</v>
       </c>
       <c r="AY16" s="0">
         <v>0</v>
@@ -3383,13 +3383,13 @@
         <v>0</v>
       </c>
       <c r="BD16" s="0">
-        <v>0</v>
+        <v>0.76992351267690928</v>
       </c>
       <c r="BE16" s="0">
         <v>0</v>
       </c>
       <c r="BF16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG16" s="0">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="BN16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO16" s="0">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="0">
         <v>0</v>
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>0</v>
+        <v>0.5613242778468408</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
@@ -3478,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>0</v>
+        <v>0.51053575570270326</v>
       </c>
       <c r="T17" s="0">
-        <v>0</v>
+        <v>0.58468881179813215</v>
       </c>
       <c r="U17" s="0">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="AH17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI17" s="0">
         <v>0</v>
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="BO17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP17" s="0">
         <v>0</v>
@@ -3630,7 +3630,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0</v>
+        <v>0.95165478894049993</v>
       </c>
       <c r="B18" s="0">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="AQ18" s="0">
-        <v>0</v>
+        <v>0.55233582083180544</v>
       </c>
       <c r="AR18" s="0">
         <v>0</v>
@@ -3768,10 +3768,10 @@
         <v>0</v>
       </c>
       <c r="AU18" s="0">
-        <v>0</v>
+        <v>0.71008432681732225</v>
       </c>
       <c r="AV18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW18" s="0">
         <v>0</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="BN18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO18" s="0">
         <v>0</v>
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="0">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="0">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0</v>
+        <v>0.80991403901495462</v>
       </c>
       <c r="R19" s="0">
         <v>0</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="V19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" s="0">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AB19" s="0">
-        <v>0</v>
+        <v>0.65317033337004582</v>
       </c>
       <c r="AC19" s="0">
         <v>0</v>
@@ -3953,13 +3953,13 @@
         <v>0</v>
       </c>
       <c r="AN19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="0">
         <v>0</v>
       </c>
       <c r="AP19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="0">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="AV19" s="0">
-        <v>0</v>
+        <v>0.64874221867672144</v>
       </c>
       <c r="AW19" s="0">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="BL19" s="0">
-        <v>1</v>
+        <v>0.68288043912005181</v>
       </c>
       <c r="BM19" s="0">
         <v>0</v>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="0">
-        <v>0</v>
+        <v>0.71784950176734696</v>
       </c>
       <c r="R20" s="0">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="AN20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="0">
         <v>0</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="AT20" s="0">
-        <v>0</v>
+        <v>0.85844692304560866</v>
       </c>
       <c r="AU20" s="0">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="AZ20" s="0">
-        <v>1</v>
+        <v>0.95406578230323058</v>
       </c>
       <c r="BA20" s="0">
         <v>0</v>
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="BG20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH20" s="0">
         <v>0</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="BJ20" s="0">
-        <v>0</v>
+        <v>0.72000008925330827</v>
       </c>
       <c r="BK20" s="0">
         <v>0</v>
@@ -4269,13 +4269,13 @@
         <v>0</v>
       </c>
       <c r="H21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="0">
         <v>0</v>
       </c>
       <c r="J21" s="0">
-        <v>0</v>
+        <v>0.79033662383687697</v>
       </c>
       <c r="K21" s="0">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.69664062421945228</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="AF21" s="0">
-        <v>0</v>
+        <v>0.85247417288815075</v>
       </c>
       <c r="AG21" s="0">
         <v>0</v>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="0">
-        <v>0</v>
+        <v>0.56850088007182298</v>
       </c>
       <c r="AL21" s="0">
         <v>0</v>
@@ -4398,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="AY21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ21" s="0">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="BC21" s="0">
-        <v>0</v>
+        <v>0.52701662707711261</v>
       </c>
       <c r="BD21" s="0">
         <v>0</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="0">
         <v>0</v>
@@ -4508,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="0">
         <v>0</v>
@@ -4520,10 +4520,10 @@
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4553,10 +4553,10 @@
         <v>0</v>
       </c>
       <c r="AH22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI22" s="0">
-        <v>0</v>
+        <v>0.72056312412182266</v>
       </c>
       <c r="AJ22" s="0">
         <v>0</v>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="AM22" s="0">
-        <v>0</v>
+        <v>0.7214577955350614</v>
       </c>
       <c r="AN22" s="0">
         <v>0</v>
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="BI22" s="0">
-        <v>0</v>
+        <v>0.73117271678645346</v>
       </c>
       <c r="BJ22" s="0">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="BO22" s="0">
-        <v>0</v>
+        <v>0.86832884537665522</v>
       </c>
       <c r="BP22" s="0">
         <v>0</v>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="0">
         <v>0</v>
@@ -4720,10 +4720,10 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.61969033620159664</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="AQ23" s="0">
-        <v>0</v>
+        <v>0.76904390753192875</v>
       </c>
       <c r="AR23" s="0">
         <v>0</v>
@@ -4837,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="BH23" s="0">
-        <v>0</v>
+        <v>0.56284210299346871</v>
       </c>
       <c r="BI23" s="0">
         <v>0</v>
@@ -4855,10 +4855,10 @@
         <v>0</v>
       </c>
       <c r="BN23" s="0">
-        <v>0</v>
+        <v>0.66784553038080019</v>
       </c>
       <c r="BO23" s="0">
-        <v>0</v>
+        <v>0.94965037013812514</v>
       </c>
       <c r="BP23" s="0">
         <v>0</v>
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="0">
-        <v>0</v>
+        <v>0.86095216675967412</v>
       </c>
       <c r="Q24" s="0">
         <v>0</v>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="0">
         <v>0</v>
@@ -4950,13 +4950,13 @@
         <v>0</v>
       </c>
       <c r="AC24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="0">
         <v>0</v>
       </c>
       <c r="AE24" s="0">
-        <v>1</v>
+        <v>0.81552797395583765</v>
       </c>
       <c r="AF24" s="0">
         <v>0</v>
@@ -4968,10 +4968,10 @@
         <v>0</v>
       </c>
       <c r="AI24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="0">
-        <v>0</v>
+        <v>0.59171338964935072</v>
       </c>
       <c r="AK24" s="0">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="AO24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP24" s="0">
         <v>0</v>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="AY24" s="0">
-        <v>0</v>
+        <v>0.68952866932952084</v>
       </c>
       <c r="AZ24" s="0">
         <v>0</v>
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="0">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="0">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="AF25" s="0">
-        <v>0</v>
+        <v>0.75188875432561542</v>
       </c>
       <c r="AG25" s="0">
         <v>0</v>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK25" s="0">
         <v>0</v>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="AO25" s="0">
-        <v>0</v>
+        <v>0.8328844194955427</v>
       </c>
       <c r="AP25" s="0">
         <v>0</v>
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="AZ25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA25" s="0">
         <v>0</v>
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="BF25" s="0">
-        <v>0</v>
+        <v>0.88557596239509229</v>
       </c>
       <c r="BG25" s="0">
         <v>0</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="BP25" s="0">
-        <v>0</v>
+        <v>0.79162428669418206</v>
       </c>
     </row>
     <row r="26">
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="0">
-        <v>0</v>
+        <v>0.70010691240903444</v>
       </c>
       <c r="P26" s="0">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="0">
         <v>0</v>
@@ -5371,13 +5371,13 @@
         <v>0</v>
       </c>
       <c r="AF26" s="0">
-        <v>0</v>
+        <v>0.69897974449537337</v>
       </c>
       <c r="AG26" s="0">
         <v>0</v>
       </c>
       <c r="AH26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI26" s="0">
         <v>0</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="AW26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX26" s="0">
         <v>0</v>
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="BB26" s="0">
-        <v>0</v>
+        <v>0.70377855153826707</v>
       </c>
       <c r="BC26" s="0">
         <v>0</v>
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="BG26" s="0">
-        <v>0</v>
+        <v>0.66604169233710309</v>
       </c>
       <c r="BH26" s="0">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>0</v>
+        <v>0.68974511531890392</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5637,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="AZ27" s="0">
-        <v>0</v>
+        <v>0.85367431233771485</v>
       </c>
       <c r="BA27" s="0">
         <v>0</v>
@@ -5652,10 +5652,10 @@
         <v>0</v>
       </c>
       <c r="BE27" s="0">
-        <v>0</v>
+        <v>0.58771430738309205</v>
       </c>
       <c r="BF27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG27" s="0">
         <v>0</v>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="BM27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN27" s="0">
         <v>0</v>
@@ -5690,7 +5690,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0</v>
+        <v>0.92835711672778565</v>
       </c>
       <c r="B28" s="0">
         <v>0</v>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="0">
         <v>0</v>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="0">
-        <v>0</v>
+        <v>0.51455870895364586</v>
       </c>
       <c r="T28" s="0">
         <v>0</v>
@@ -5807,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="AN28" s="0">
-        <v>0</v>
+        <v>0.99645318373614367</v>
       </c>
       <c r="AO28" s="0">
         <v>0</v>
@@ -5822,16 +5822,16 @@
         <v>0</v>
       </c>
       <c r="AS28" s="0">
-        <v>0</v>
+        <v>0.84572294835804041</v>
       </c>
       <c r="AT28" s="0">
         <v>0</v>
       </c>
       <c r="AU28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW28" s="0">
         <v>0</v>
@@ -5840,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="AY28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ28" s="0">
         <v>0</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="BP28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0</v>
+        <v>0.51280578168854307</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="AE29" s="0">
-        <v>0</v>
+        <v>0.94948644699603313</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="0">
-        <v>0</v>
+        <v>0.53448788287440796</v>
       </c>
       <c r="AM29" s="0">
         <v>0</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="AY29" s="0">
-        <v>0</v>
+        <v>0.86411412503237417</v>
       </c>
       <c r="AZ29" s="0">
         <v>0</v>
@@ -6061,10 +6061,10 @@
         <v>0</v>
       </c>
       <c r="BD29" s="0">
-        <v>1</v>
+        <v>0.83566881517130143</v>
       </c>
       <c r="BE29" s="0">
-        <v>1</v>
+        <v>0.74914445626852644</v>
       </c>
       <c r="BF29" s="0">
         <v>0</v>
@@ -6082,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="BK29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL29" s="0">
         <v>0</v>
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="0">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0.5507372866457243</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="AS30" s="0">
-        <v>0</v>
+        <v>0.57673725226937678</v>
       </c>
       <c r="AT30" s="0">
         <v>0</v>
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="BK30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL30" s="0">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="0">
-        <v>0</v>
+        <v>0.63293196181144706</v>
       </c>
       <c r="I31" s="0">
         <v>0</v>
@@ -6338,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="0">
         <v>0</v>
@@ -6377,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="0">
-        <v>1</v>
+        <v>0.93641636035234677</v>
       </c>
       <c r="Y31" s="0">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0</v>
+        <v>0.74293538847209906</v>
       </c>
       <c r="AD31" s="0">
         <v>0</v>
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="0">
         <v>0</v>
@@ -6485,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="BH31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI31" s="0">
         <v>0</v>
@@ -6517,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="0">
-        <v>0</v>
+        <v>0.58920086927267468</v>
       </c>
       <c r="C32" s="0">
         <v>0</v>
@@ -6544,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="0">
-        <v>0</v>
+        <v>0.52127833324594919</v>
       </c>
       <c r="L32" s="0">
         <v>0</v>
@@ -6574,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="0">
-        <v>0</v>
+        <v>0.65754787346552324</v>
       </c>
       <c r="V32" s="0">
         <v>0</v>
@@ -6586,10 +6586,10 @@
         <v>0</v>
       </c>
       <c r="Y32" s="0">
-        <v>0</v>
+        <v>0.97089257745458335</v>
       </c>
       <c r="Z32" s="0">
-        <v>0</v>
+        <v>0.69806153292968598</v>
       </c>
       <c r="AA32" s="0">
         <v>0</v>
@@ -6601,10 +6601,10 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0.69614633241654533</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
@@ -6679,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="BD32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE32" s="0">
         <v>0</v>
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="BG32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH32" s="0">
         <v>0</v>
@@ -6720,7 +6720,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0</v>
+        <v>0.87857064535627472</v>
       </c>
       <c r="B33" s="0">
         <v>0</v>
@@ -6756,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" s="0">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>0</v>
+        <v>0.55367994921451547</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="AL33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="0">
         <v>0</v>
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="AQ33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR33" s="0">
         <v>0</v>
@@ -6861,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="AV33" s="0">
-        <v>0</v>
+        <v>0.86795481385941275</v>
       </c>
       <c r="AW33" s="0">
         <v>0</v>
@@ -6932,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="0">
         <v>0</v>
@@ -6962,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="0">
-        <v>0</v>
+        <v>0.94231387175579573</v>
       </c>
       <c r="N34" s="0">
         <v>0</v>
@@ -6971,10 +6971,10 @@
         <v>0</v>
       </c>
       <c r="P34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" s="0">
         <v>0</v>
@@ -6989,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" s="0">
         <v>0</v>
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="Z34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="0">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0</v>
+        <v>0.99953580854119994</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7043,10 +7043,10 @@
         <v>0</v>
       </c>
       <c r="AN34" s="0">
-        <v>0</v>
+        <v>0.6945334988988312</v>
       </c>
       <c r="AO34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP34" s="0">
         <v>0</v>
@@ -7106,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="BI34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ34" s="0">
         <v>0</v>
@@ -7124,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="BO34" s="0">
-        <v>0</v>
+        <v>0.58350023333529011</v>
       </c>
       <c r="BP34" s="0">
         <v>0</v>
@@ -7141,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="0">
         <v>0</v>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="0">
-        <v>0</v>
+        <v>0.89456050165688383</v>
       </c>
       <c r="O35" s="0">
         <v>0</v>
@@ -7195,13 +7195,13 @@
         <v>0</v>
       </c>
       <c r="V35" s="0">
-        <v>0</v>
+        <v>0.51524685374917412</v>
       </c>
       <c r="W35" s="0">
         <v>0</v>
       </c>
       <c r="X35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="0">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0</v>
+        <v>0.90758270293542631</v>
       </c>
       <c r="AH35" s="0">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0</v>
+        <v>0.74808838599705618</v>
       </c>
       <c r="AK35" s="0">
         <v>0</v>
@@ -7246,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="AM35" s="0">
-        <v>0</v>
+        <v>0.8052876965074085</v>
       </c>
       <c r="AN35" s="0">
         <v>0</v>
@@ -7276,7 +7276,7 @@
         <v>0</v>
       </c>
       <c r="AW35" s="0">
-        <v>0</v>
+        <v>0.90833664810493941</v>
       </c>
       <c r="AX35" s="0">
         <v>0</v>
@@ -7383,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="0">
         <v>0</v>
@@ -7407,10 +7407,10 @@
         <v>0</v>
       </c>
       <c r="X36" s="0">
-        <v>0</v>
+        <v>0.97984892088967213</v>
       </c>
       <c r="Y36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="0">
         <v>0</v>
@@ -7437,10 +7437,10 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0</v>
+        <v>0.64644406473093297</v>
       </c>
       <c r="AI36" s="0">
-        <v>0</v>
+        <v>0.62564050105963842</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7467,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="AR36" s="0">
-        <v>0</v>
+        <v>0.91219500714499069</v>
       </c>
       <c r="AS36" s="0">
         <v>0</v>
@@ -7479,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="AV36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW36" s="0">
         <v>0</v>
@@ -7544,7 +7544,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0</v>
+        <v>0.80815949527109088</v>
       </c>
       <c r="B37" s="0">
         <v>0</v>
@@ -7553,13 +7553,13 @@
         <v>0</v>
       </c>
       <c r="D37" s="0">
-        <v>0</v>
+        <v>0.78905594985915462</v>
       </c>
       <c r="E37" s="0">
         <v>0</v>
       </c>
       <c r="F37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="0">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="U37" s="0">
-        <v>0</v>
+        <v>0.59403406612390064</v>
       </c>
       <c r="V37" s="0">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="AY37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ37" s="0">
         <v>0</v>
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="BD37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE37" s="0">
         <v>0</v>
@@ -7730,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="BK37" s="0">
-        <v>0</v>
+        <v>0.75809762260598612</v>
       </c>
       <c r="BL37" s="0">
         <v>0</v>
@@ -7795,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="0">
-        <v>0</v>
+        <v>0.89322858812677075</v>
       </c>
       <c r="Q38" s="0">
         <v>0</v>
@@ -7834,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="0">
-        <v>0</v>
+        <v>0.68551797710971951</v>
       </c>
       <c r="AD38" s="0">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="AG38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="0">
         <v>0</v>
@@ -7885,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="AT38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU38" s="0">
         <v>0</v>
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="BP38" s="0">
-        <v>0</v>
+        <v>0.90643516944912061</v>
       </c>
     </row>
     <row r="39">
@@ -7959,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="0">
-        <v>1</v>
+        <v>0.57945562553969421</v>
       </c>
       <c r="C39" s="0">
         <v>0</v>
@@ -7989,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" s="0">
         <v>0</v>
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="0">
-        <v>0</v>
+        <v>0.61294813643540924</v>
       </c>
       <c r="W39" s="0">
         <v>0</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="AI39" s="0">
-        <v>0</v>
+        <v>0.74853008385995179</v>
       </c>
       <c r="AJ39" s="0">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="AP39" s="0">
-        <v>0</v>
+        <v>0.79908669224985795</v>
       </c>
       <c r="AQ39" s="0">
         <v>0</v>
@@ -8148,13 +8148,13 @@
         <v>0</v>
       </c>
       <c r="BM39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN39" s="0">
         <v>0</v>
       </c>
       <c r="BO39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP39" s="0">
         <v>0</v>
@@ -8216,10 +8216,10 @@
         <v>0</v>
       </c>
       <c r="S40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40" s="0">
         <v>0</v>
@@ -8243,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="0">
-        <v>0</v>
+        <v>0.79236321227283302</v>
       </c>
       <c r="AC40" s="0">
         <v>0</v>
@@ -8261,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="AH40" s="0">
-        <v>0</v>
+        <v>0.61312407089730636</v>
       </c>
       <c r="AI40" s="0">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="AX40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY40" s="0">
         <v>0</v>
       </c>
       <c r="AZ40" s="0">
-        <v>0</v>
+        <v>0.73666499987534895</v>
       </c>
       <c r="BA40" s="0">
         <v>0</v>
@@ -8336,22 +8336,22 @@
         <v>0</v>
       </c>
       <c r="BG40" s="0">
-        <v>0</v>
+        <v>0.92641690022578305</v>
       </c>
       <c r="BH40" s="0">
         <v>0</v>
       </c>
       <c r="BI40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ40" s="0">
         <v>0</v>
       </c>
       <c r="BK40" s="0">
-        <v>0</v>
+        <v>0.95830223021895644</v>
       </c>
       <c r="BL40" s="0">
-        <v>0</v>
+        <v>0.81366523784002476</v>
       </c>
       <c r="BM40" s="0">
         <v>0</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="0">
-        <v>0</v>
+        <v>0.62948906463639753</v>
       </c>
       <c r="E41" s="0">
         <v>0</v>
@@ -8437,10 +8437,10 @@
         <v>0</v>
       </c>
       <c r="X41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="0">
-        <v>0</v>
+        <v>0.8215284326162422</v>
       </c>
       <c r="Z41" s="0">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="AH41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI41" s="0">
         <v>0</v>
@@ -8497,13 +8497,13 @@
         <v>0</v>
       </c>
       <c r="AR41" s="0">
-        <v>0</v>
+        <v>0.94950587406496845</v>
       </c>
       <c r="AS41" s="0">
         <v>0</v>
       </c>
       <c r="AT41" s="0">
-        <v>0</v>
+        <v>0.55320359564838029</v>
       </c>
       <c r="AU41" s="0">
         <v>0</v>
@@ -8577,7 +8577,7 @@
         <v>0</v>
       </c>
       <c r="B42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" s="0">
         <v>0</v>
@@ -8613,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="N42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" s="0">
         <v>0</v>
@@ -8628,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="S42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" s="0">
         <v>0</v>
@@ -8688,7 +8688,7 @@
         <v>0</v>
       </c>
       <c r="AM42" s="0">
-        <v>0</v>
+        <v>0.66129900632440863</v>
       </c>
       <c r="AN42" s="0">
         <v>0</v>
@@ -8703,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8715,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="AV42" s="0">
-        <v>0</v>
+        <v>0.74352648616129557</v>
       </c>
       <c r="AW42" s="0">
         <v>0</v>
@@ -8739,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="BD42" s="0">
-        <v>0</v>
+        <v>0.78285975539255781</v>
       </c>
       <c r="BE42" s="0">
         <v>0</v>
@@ -8795,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="0">
-        <v>0</v>
+        <v>0.85715339736494256</v>
       </c>
       <c r="G43" s="0">
         <v>0</v>
@@ -8825,13 +8825,13 @@
         <v>0</v>
       </c>
       <c r="P43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="0">
         <v>0</v>
       </c>
       <c r="R43" s="0">
-        <v>0</v>
+        <v>0.54052914538816776</v>
       </c>
       <c r="S43" s="0">
         <v>0</v>
@@ -8846,7 +8846,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="0">
-        <v>0</v>
+        <v>0.53026579359368786</v>
       </c>
       <c r="X43" s="0">
         <v>0</v>
@@ -8876,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="AG43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH43" s="0">
         <v>0</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0.67910327912620472</v>
       </c>
       <c r="AS43" s="0">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="AY43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ43" s="0">
         <v>0</v>
@@ -9025,7 +9025,7 @@
         <v>0</v>
       </c>
       <c r="N44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" s="0">
         <v>0</v>
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="0">
-        <v>0</v>
+        <v>0.54433552869713264</v>
       </c>
       <c r="AK44" s="0">
         <v>0</v>
@@ -9106,13 +9106,13 @@
         <v>0</v>
       </c>
       <c r="AO44" s="0">
-        <v>0</v>
+        <v>0.59142929651315612</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0.80496736221562348</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
@@ -9121,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="BH44" s="0">
-        <v>0</v>
+        <v>0.52279088368421012</v>
       </c>
       <c r="BI44" s="0">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="BK44" s="0">
-        <v>0</v>
+        <v>0.77365135459423506</v>
       </c>
       <c r="BL44" s="0">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" s="0">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="0">
-        <v>0</v>
+        <v>0.76718148401486774</v>
       </c>
       <c r="Q45" s="0">
         <v>0</v>
@@ -9273,13 +9273,13 @@
         <v>0</v>
       </c>
       <c r="AB45" s="0">
-        <v>0</v>
+        <v>0.58858083046911269</v>
       </c>
       <c r="AC45" s="0">
         <v>0</v>
       </c>
       <c r="AD45" s="0">
-        <v>0</v>
+        <v>0.86629538302205344</v>
       </c>
       <c r="AE45" s="0">
         <v>0</v>
@@ -9330,10 +9330,10 @@
         <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="0">
-        <v>0</v>
+        <v>0.9122338742146413</v>
       </c>
       <c r="AW45" s="0">
         <v>0</v>
@@ -9369,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="BH45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI45" s="0">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="0">
         <v>0</v>
@@ -9455,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="0">
-        <v>0</v>
+        <v>0.77129321112146576</v>
       </c>
       <c r="U46" s="0">
         <v>0</v>
@@ -9509,7 +9509,7 @@
         <v>0</v>
       </c>
       <c r="AL46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="0">
         <v>0</v>
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="AO46" s="0">
-        <v>0</v>
+        <v>0.90559163668805376</v>
       </c>
       <c r="AP46" s="0">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS46" s="0">
         <v>0</v>
@@ -9536,10 +9536,10 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9604,7 +9604,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0</v>
+        <v>0.50754676966024881</v>
       </c>
       <c r="B47" s="0">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="R47" s="0">
-        <v>0</v>
+        <v>0.82031973526688295</v>
       </c>
       <c r="S47" s="0">
         <v>0</v>
@@ -9685,7 +9685,7 @@
         <v>0</v>
       </c>
       <c r="AB47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC47" s="0">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9787,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="BJ47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK47" s="0">
         <v>0</v>
@@ -9846,7 +9846,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="0">
-        <v>1</v>
+        <v>0.73821299470500812</v>
       </c>
       <c r="N48" s="0">
         <v>0</v>
@@ -9861,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="R48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48" s="0">
-        <v>0</v>
+        <v>0.70545819884801575</v>
       </c>
       <c r="T48" s="0">
         <v>0</v>
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC48" s="0">
         <v>0</v>
@@ -9906,7 +9906,7 @@
         <v>0</v>
       </c>
       <c r="AG48" s="0">
-        <v>0</v>
+        <v>0.91589429344529938</v>
       </c>
       <c r="AH48" s="0">
         <v>0</v>
@@ -9915,7 +9915,7 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK48" s="0">
         <v>0</v>
@@ -9933,7 +9933,7 @@
         <v>0</v>
       </c>
       <c r="AP48" s="0">
-        <v>0</v>
+        <v>0.80834794679972477</v>
       </c>
       <c r="AQ48" s="0">
         <v>0</v>
@@ -9942,10 +9942,10 @@
         <v>0</v>
       </c>
       <c r="AS48" s="0">
-        <v>0</v>
+        <v>0.63565034786716335</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU48" s="0">
         <v>0</v>
@@ -10034,7 +10034,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="0">
-        <v>0</v>
+        <v>0.55267528522495324</v>
       </c>
       <c r="H49" s="0">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="Z49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA49" s="0">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="AI49" s="0">
-        <v>0</v>
+        <v>0.62374382063414258</v>
       </c>
       <c r="AJ49" s="0">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10181,10 +10181,10 @@
         <v>0</v>
       </c>
       <c r="BD49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF49" s="0">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="BN49" s="0">
-        <v>0</v>
+        <v>0.70532920641109542</v>
       </c>
       <c r="BO49" s="0">
         <v>0</v>
@@ -10228,7 +10228,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="0">
-        <v>0</v>
+        <v>0.67764609578088419</v>
       </c>
       <c r="D50" s="0">
         <v>0</v>
@@ -10261,13 +10261,13 @@
         <v>0</v>
       </c>
       <c r="N50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" s="0">
         <v>0</v>
       </c>
       <c r="P50" s="0">
-        <v>0</v>
+        <v>0.58905534426241024</v>
       </c>
       <c r="Q50" s="0">
         <v>0</v>
@@ -10339,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="AN50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO50" s="0">
         <v>0</v>
@@ -10378,13 +10378,13 @@
         <v>0</v>
       </c>
       <c r="BA50" s="0">
-        <v>0</v>
+        <v>0.65932608583407104</v>
       </c>
       <c r="BB50" s="0">
         <v>0</v>
       </c>
       <c r="BC50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD50" s="0">
         <v>0</v>
@@ -10399,7 +10399,7 @@
         <v>0</v>
       </c>
       <c r="BH50" s="0">
-        <v>0</v>
+        <v>0.66967521591875967</v>
       </c>
       <c r="BI50" s="0">
         <v>0</v>
@@ -10488,7 +10488,7 @@
         <v>0</v>
       </c>
       <c r="U51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51" s="0">
         <v>0</v>
@@ -10497,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="X51" s="0">
-        <v>0</v>
+        <v>0.52264401730846566</v>
       </c>
       <c r="Y51" s="0">
         <v>0</v>
@@ -10509,10 +10509,10 @@
         <v>0</v>
       </c>
       <c r="AB51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC51" s="0">
-        <v>0</v>
+        <v>0.6792259339195752</v>
       </c>
       <c r="AD51" s="0">
         <v>0</v>
@@ -10536,7 +10536,7 @@
         <v>0</v>
       </c>
       <c r="AK51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL51" s="0">
         <v>0</v>
@@ -10554,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="AQ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR51" s="0">
         <v>0</v>
@@ -10599,13 +10599,13 @@
         <v>0</v>
       </c>
       <c r="BF51" s="0">
-        <v>0</v>
+        <v>0.73937049046539127</v>
       </c>
       <c r="BG51" s="0">
-        <v>0</v>
+        <v>0.66128054825989979</v>
       </c>
       <c r="BH51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI51" s="0">
         <v>0</v>
@@ -10637,7 +10637,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="0">
-        <v>0</v>
+        <v>0.52314307771588853</v>
       </c>
       <c r="C52" s="0">
         <v>0</v>
@@ -10646,7 +10646,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="0">
-        <v>0</v>
+        <v>0.96180690328870089</v>
       </c>
       <c r="F52" s="0">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="0">
-        <v>0</v>
+        <v>0.99776071290238866</v>
       </c>
       <c r="K52" s="0">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" s="0">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="0">
-        <v>1</v>
+        <v>0.93728528382272158</v>
       </c>
       <c r="U52" s="0">
         <v>0</v>
@@ -10706,13 +10706,13 @@
         <v>0</v>
       </c>
       <c r="Y52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="0">
         <v>0</v>
       </c>
       <c r="AA52" s="0">
-        <v>0</v>
+        <v>0.62988718534296795</v>
       </c>
       <c r="AB52" s="0">
         <v>0</v>
@@ -10751,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="AN52" s="0">
-        <v>0</v>
+        <v>0.96364179143561934</v>
       </c>
       <c r="AO52" s="0">
         <v>0</v>
@@ -10840,7 +10840,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -10858,10 +10858,10 @@
         <v>0</v>
       </c>
       <c r="G53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="0">
         <v>0</v>
@@ -10870,10 +10870,10 @@
         <v>0</v>
       </c>
       <c r="K53" s="0">
-        <v>0</v>
+        <v>0.85915874449924168</v>
       </c>
       <c r="L53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" s="0">
         <v>0</v>
@@ -10987,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="AX53" s="0">
-        <v>0</v>
+        <v>0.62011349245499381</v>
       </c>
       <c r="AY53" s="0">
         <v>0</v>
@@ -11026,10 +11026,10 @@
         <v>0</v>
       </c>
       <c r="BK53" s="0">
-        <v>0</v>
+        <v>0.60851145848662891</v>
       </c>
       <c r="BL53" s="0">
-        <v>0</v>
+        <v>0.58889663654755919</v>
       </c>
       <c r="BM53" s="0">
         <v>0</v>
@@ -11058,13 +11058,13 @@
         <v>0</v>
       </c>
       <c r="E54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="0">
         <v>0</v>
       </c>
       <c r="G54" s="0">
-        <v>0</v>
+        <v>0.76253761278865728</v>
       </c>
       <c r="H54" s="0">
         <v>0</v>
@@ -11079,7 +11079,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="0">
-        <v>0</v>
+        <v>0.89950355594378628</v>
       </c>
       <c r="M54" s="0">
         <v>0</v>
@@ -11121,7 +11121,7 @@
         <v>0</v>
       </c>
       <c r="Z54" s="0">
-        <v>0</v>
+        <v>0.60261873831196167</v>
       </c>
       <c r="AA54" s="0">
         <v>0</v>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD54" s="0">
         <v>0</v>
@@ -11273,7 +11273,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="0">
-        <v>0</v>
+        <v>0.55707902519244179</v>
       </c>
       <c r="I55" s="0">
         <v>0</v>
@@ -11291,7 +11291,7 @@
         <v>0</v>
       </c>
       <c r="N55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" s="0">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="U55" s="0">
-        <v>0</v>
+        <v>0.80896804346147433</v>
       </c>
       <c r="V55" s="0">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="AX55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY55" s="0">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
@@ -11444,7 +11444,7 @@
         <v>0</v>
       </c>
       <c r="BM55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN55" s="0">
         <v>0</v>
@@ -11458,7 +11458,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0</v>
+        <v>0.50806858717671255</v>
       </c>
       <c r="B56" s="0">
         <v>0</v>
@@ -11482,7 +11482,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" s="0">
         <v>0</v>
@@ -11503,7 +11503,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="0">
-        <v>0</v>
+        <v>0.74704174055744743</v>
       </c>
       <c r="Q56" s="0">
         <v>0</v>
@@ -11542,7 +11542,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="0">
-        <v>1</v>
+        <v>0.98990017832572752</v>
       </c>
       <c r="AD56" s="0">
         <v>0</v>
@@ -11551,7 +11551,7 @@
         <v>0</v>
       </c>
       <c r="AF56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG56" s="0">
         <v>0</v>
@@ -11566,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56" s="0">
         <v>0</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="AP56" s="0">
-        <v>0</v>
+        <v>0.8734567898252269</v>
       </c>
       <c r="AQ56" s="0">
         <v>0</v>
@@ -11602,7 +11602,7 @@
         <v>0</v>
       </c>
       <c r="AW56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX56" s="0">
         <v>0</v>
@@ -11644,7 +11644,7 @@
         <v>0</v>
       </c>
       <c r="BK56" s="0">
-        <v>0</v>
+        <v>0.93581938839847756</v>
       </c>
       <c r="BL56" s="0">
         <v>0</v>
@@ -11706,7 +11706,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P57" s="0">
         <v>0</v>
@@ -11742,13 +11742,13 @@
         <v>0</v>
       </c>
       <c r="AA57" s="0">
-        <v>0</v>
+        <v>0.83756203341115487</v>
       </c>
       <c r="AB57" s="0">
         <v>0</v>
       </c>
       <c r="AC57" s="0">
-        <v>1</v>
+        <v>0.8774687743440478</v>
       </c>
       <c r="AD57" s="0">
         <v>0</v>
@@ -11808,7 +11808,7 @@
         <v>0</v>
       </c>
       <c r="AW57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX57" s="0">
         <v>0</v>
@@ -11853,7 +11853,7 @@
         <v>0</v>
       </c>
       <c r="BL57" s="0">
-        <v>0</v>
+        <v>0.8526953983065555</v>
       </c>
       <c r="BM57" s="0">
         <v>0</v>
@@ -11879,10 +11879,10 @@
         <v>0</v>
       </c>
       <c r="D58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="0">
         <v>0</v>
@@ -11915,7 +11915,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="0">
         <v>0</v>
@@ -11942,13 +11942,13 @@
         <v>0</v>
       </c>
       <c r="Y58" s="0">
-        <v>0</v>
+        <v>0.75266284089091262</v>
       </c>
       <c r="Z58" s="0">
         <v>0</v>
       </c>
       <c r="AA58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB58" s="0">
         <v>0</v>
@@ -12020,7 +12020,7 @@
         <v>0</v>
       </c>
       <c r="AY58" s="0">
-        <v>0</v>
+        <v>0.98859331949123996</v>
       </c>
       <c r="AZ58" s="0">
         <v>0</v>
@@ -12106,7 +12106,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="0">
-        <v>0</v>
+        <v>0.58797026174475475</v>
       </c>
       <c r="L59" s="0">
         <v>0</v>
@@ -12115,7 +12115,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" s="0">
         <v>0</v>
@@ -12133,7 +12133,7 @@
         <v>0</v>
       </c>
       <c r="T59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U59" s="0">
         <v>0</v>
@@ -12151,7 +12151,7 @@
         <v>0</v>
       </c>
       <c r="Z59" s="0">
-        <v>0</v>
+        <v>0.93137444715586848</v>
       </c>
       <c r="AA59" s="0">
         <v>0</v>
@@ -12169,7 +12169,7 @@
         <v>0</v>
       </c>
       <c r="AF59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG59" s="0">
         <v>0</v>
@@ -12193,7 +12193,7 @@
         <v>0</v>
       </c>
       <c r="AN59" s="0">
-        <v>0</v>
+        <v>0.84447281126656049</v>
       </c>
       <c r="AO59" s="0">
         <v>0</v>
@@ -12226,7 +12226,7 @@
         <v>0</v>
       </c>
       <c r="AY59" s="0">
-        <v>0</v>
+        <v>0.89701113987582382</v>
       </c>
       <c r="AZ59" s="0">
         <v>0</v>
@@ -12253,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0.54021537854825752</v>
       </c>
       <c r="BI59" s="0">
         <v>0</v>
@@ -12262,7 +12262,7 @@
         <v>0</v>
       </c>
       <c r="BK59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL59" s="0">
         <v>0</v>
@@ -12294,10 +12294,10 @@
         <v>0</v>
       </c>
       <c r="E60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="0">
-        <v>0</v>
+        <v>0.94940332826969542</v>
       </c>
       <c r="G60" s="0">
         <v>0</v>
@@ -12348,7 +12348,7 @@
         <v>0</v>
       </c>
       <c r="W60" s="0">
-        <v>0</v>
+        <v>0.95536144213237484</v>
       </c>
       <c r="X60" s="0">
         <v>0</v>
@@ -12372,7 +12372,7 @@
         <v>0</v>
       </c>
       <c r="AE60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF60" s="0">
         <v>0</v>
@@ -12411,10 +12411,10 @@
         <v>0</v>
       </c>
       <c r="AR60" s="0">
-        <v>0</v>
+        <v>0.70437070108865507</v>
       </c>
       <c r="AS60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="0">
         <v>0</v>
@@ -12429,10 +12429,10 @@
         <v>0</v>
       </c>
       <c r="AX60" s="0">
-        <v>0</v>
+        <v>0.98808001568417447</v>
       </c>
       <c r="AY60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ60" s="0">
         <v>0</v>
@@ -12456,7 +12456,7 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0.99687176487610973</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
@@ -12483,7 +12483,7 @@
         <v>0</v>
       </c>
       <c r="BP60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="D61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" s="0">
         <v>0</v>
@@ -12524,7 +12524,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N61" s="0">
         <v>0</v>
@@ -12551,7 +12551,7 @@
         <v>0</v>
       </c>
       <c r="V61" s="0">
-        <v>0</v>
+        <v>0.97132398272717335</v>
       </c>
       <c r="W61" s="0">
         <v>0</v>
@@ -12587,7 +12587,7 @@
         <v>0</v>
       </c>
       <c r="AH61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI61" s="0">
         <v>0</v>
@@ -12605,7 +12605,7 @@
         <v>0</v>
       </c>
       <c r="AN61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO61" s="0">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>0</v>
+        <v>0.85820839601671906</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12683,7 +12683,7 @@
         <v>0</v>
       </c>
       <c r="BN61" s="0">
-        <v>0</v>
+        <v>0.54116189136536774</v>
       </c>
       <c r="BO61" s="0">
         <v>0</v>
@@ -12700,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" s="0">
         <v>0</v>
@@ -12751,7 +12751,7 @@
         <v>0</v>
       </c>
       <c r="T62" s="0">
-        <v>0</v>
+        <v>0.59202159059228388</v>
       </c>
       <c r="U62" s="0">
         <v>0</v>
@@ -12832,7 +12832,7 @@
         <v>0</v>
       </c>
       <c r="AU62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV62" s="0">
         <v>0</v>
@@ -12880,10 +12880,10 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0</v>
+        <v>0.84557997344870639</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12895,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="BP62" s="0">
-        <v>0</v>
+        <v>0.55691983895408637</v>
       </c>
     </row>
     <row r="63">
@@ -12915,7 +12915,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="0">
-        <v>0</v>
+        <v>0.75682124925165695</v>
       </c>
       <c r="G63" s="0">
         <v>0</v>
@@ -12984,10 +12984,10 @@
         <v>0</v>
       </c>
       <c r="AC63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE63" s="0">
         <v>0</v>
@@ -13008,7 +13008,7 @@
         <v>0</v>
       </c>
       <c r="AK63" s="0">
-        <v>0</v>
+        <v>0.72571731282114027</v>
       </c>
       <c r="AL63" s="0">
         <v>0</v>
@@ -13017,7 +13017,7 @@
         <v>0</v>
       </c>
       <c r="AN63" s="0">
-        <v>0</v>
+        <v>0.86147405409976952</v>
       </c>
       <c r="AO63" s="0">
         <v>0</v>
@@ -13029,7 +13029,7 @@
         <v>0</v>
       </c>
       <c r="AR63" s="0">
-        <v>0</v>
+        <v>0.66727429411297878</v>
       </c>
       <c r="AS63" s="0">
         <v>0</v>
@@ -13056,7 +13056,7 @@
         <v>0</v>
       </c>
       <c r="BA63" s="0">
-        <v>0</v>
+        <v>0.96074487213587667</v>
       </c>
       <c r="BB63" s="0">
         <v>0</v>
@@ -13065,7 +13065,7 @@
         <v>0</v>
       </c>
       <c r="BD63" s="0">
-        <v>0</v>
+        <v>0.60964168501635596</v>
       </c>
       <c r="BE63" s="0">
         <v>0</v>
@@ -13074,16 +13074,16 @@
         <v>0</v>
       </c>
       <c r="BG63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH63" s="0">
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0</v>
+        <v>0.93015360902199951</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0</v>
+        <v>0.93340805963783291</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13098,7 +13098,7 @@
         <v>0</v>
       </c>
       <c r="BO63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP63" s="0">
         <v>0</v>
@@ -13130,7 +13130,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" s="0">
         <v>0</v>
@@ -13160,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="S64" s="0">
-        <v>1</v>
+        <v>0.51619325715087472</v>
       </c>
       <c r="T64" s="0">
         <v>0</v>
@@ -13223,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="AN64" s="0">
-        <v>0</v>
+        <v>0.68150330345534238</v>
       </c>
       <c r="AO64" s="0">
         <v>0</v>
@@ -13262,7 +13262,7 @@
         <v>0</v>
       </c>
       <c r="BA64" s="0">
-        <v>0</v>
+        <v>0.87866143527047269</v>
       </c>
       <c r="BB64" s="0">
         <v>0</v>
@@ -13274,7 +13274,7 @@
         <v>0</v>
       </c>
       <c r="BE64" s="0">
-        <v>0</v>
+        <v>0.51718189544701798</v>
       </c>
       <c r="BF64" s="0">
         <v>0</v>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK64" s="0">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13312,7 +13312,7 @@
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>0</v>
+        <v>0.54028088441909405</v>
       </c>
       <c r="B65" s="0">
         <v>0</v>
@@ -13321,7 +13321,7 @@
         <v>0</v>
       </c>
       <c r="D65" s="0">
-        <v>0</v>
+        <v>0.78765458520582809</v>
       </c>
       <c r="E65" s="0">
         <v>0</v>
@@ -13390,7 +13390,7 @@
         <v>0</v>
       </c>
       <c r="AA65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB65" s="0">
         <v>0</v>
@@ -13426,7 +13426,7 @@
         <v>0</v>
       </c>
       <c r="AM65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN65" s="0">
         <v>0</v>
@@ -13474,7 +13474,7 @@
         <v>0</v>
       </c>
       <c r="BC65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD65" s="0">
         <v>0</v>
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO65" s="0">
         <v>0</v>
@@ -13563,13 +13563,13 @@
         <v>0</v>
       </c>
       <c r="P66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="0">
         <v>0</v>
       </c>
       <c r="R66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S66" s="0">
         <v>0</v>
@@ -13584,7 +13584,7 @@
         <v>0</v>
       </c>
       <c r="W66" s="0">
-        <v>0</v>
+        <v>0.63607892036022529</v>
       </c>
       <c r="X66" s="0">
         <v>0</v>
@@ -13662,7 +13662,7 @@
         <v>0</v>
       </c>
       <c r="AW66" s="0">
-        <v>0</v>
+        <v>0.99029109191273013</v>
       </c>
       <c r="AX66" s="0">
         <v>0</v>
@@ -13698,7 +13698,7 @@
         <v>0</v>
       </c>
       <c r="BI66" s="0">
-        <v>0</v>
+        <v>0.78232612711037031</v>
       </c>
       <c r="BJ66" s="0">
         <v>0</v>
@@ -13707,16 +13707,16 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP66" s="0">
         <v>0</v>
@@ -13748,10 +13748,10 @@
         <v>0</v>
       </c>
       <c r="I67" s="0">
-        <v>0</v>
+        <v>0.80155077654604323</v>
       </c>
       <c r="J67" s="0">
-        <v>0</v>
+        <v>0.75672465403905276</v>
       </c>
       <c r="K67" s="0">
         <v>0</v>
@@ -13760,7 +13760,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67" s="0">
         <v>0</v>
@@ -13772,7 +13772,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R67" s="0">
         <v>0</v>
@@ -13787,10 +13787,10 @@
         <v>0</v>
       </c>
       <c r="V67" s="0">
-        <v>0</v>
+        <v>0.56636488814201358</v>
       </c>
       <c r="W67" s="0">
-        <v>0</v>
+        <v>0.7088261679716038</v>
       </c>
       <c r="X67" s="0">
         <v>0</v>
@@ -13823,7 +13823,7 @@
         <v>0</v>
       </c>
       <c r="AH67" s="0">
-        <v>0</v>
+        <v>0.88807031419399052</v>
       </c>
       <c r="AI67" s="0">
         <v>0</v>
@@ -13838,7 +13838,7 @@
         <v>0</v>
       </c>
       <c r="AM67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN67" s="0">
         <v>0</v>
@@ -13910,7 +13910,7 @@
         <v>0</v>
       </c>
       <c r="BK67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL67" s="0">
         <v>0</v>
@@ -13919,7 +13919,7 @@
         <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
@@ -14002,7 +14002,7 @@
         <v>0</v>
       </c>
       <c r="Y68" s="0">
-        <v>0</v>
+        <v>0.82105522185639024</v>
       </c>
       <c r="Z68" s="0">
         <v>0</v>
@@ -14011,7 +14011,7 @@
         <v>0</v>
       </c>
       <c r="AB68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC68" s="0">
         <v>0</v>
@@ -14041,7 +14041,7 @@
         <v>0</v>
       </c>
       <c r="AL68" s="0">
-        <v>0</v>
+        <v>0.92577633501814638</v>
       </c>
       <c r="AM68" s="0">
         <v>0</v>
@@ -14107,13 +14107,13 @@
         <v>0</v>
       </c>
       <c r="BH68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI68" s="0">
         <v>0</v>
       </c>
       <c r="BJ68" s="0">
-        <v>0</v>
+        <v>0.68605431504423997</v>
       </c>
       <c r="BK68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject29.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject29.xlsx
@@ -149,7 +149,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="0">
-        <v>0.79505295149136068</v>
+        <v>0.82457518239957484</v>
       </c>
       <c r="I1" s="0">
         <v>0</v>
@@ -179,7 +179,7 @@
         <v>0</v>
       </c>
       <c r="R1" s="0">
-        <v>0.60247959929569395</v>
+        <v>0.95165478894049993</v>
       </c>
       <c r="S1" s="0">
         <v>0</v>
@@ -209,7 +209,7 @@
         <v>0</v>
       </c>
       <c r="AB1" s="0">
-        <v>0.89810617745105514</v>
+        <v>0.92835711672778565</v>
       </c>
       <c r="AC1" s="0">
         <v>0</v>
@@ -224,7 +224,7 @@
         <v>0</v>
       </c>
       <c r="AG1" s="0">
-        <v>0.52544297446263544</v>
+        <v>0.87857064535627472</v>
       </c>
       <c r="AH1" s="0">
         <v>0</v>
@@ -236,7 +236,7 @@
         <v>0</v>
       </c>
       <c r="AK1" s="0">
-        <v>0.62706863474731822</v>
+        <v>0.80815949527109088</v>
       </c>
       <c r="AL1" s="0">
         <v>0</v>
@@ -352,7 +352,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="0">
-        <v>0.62084769828431252</v>
+        <v>0.84038372785456383</v>
       </c>
       <c r="H2" s="0">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="0">
-        <v>0.50954367632698394</v>
+        <v>0.91163922004679454</v>
       </c>
       <c r="P3" s="0">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="AX3" s="0">
-        <v>0.65260278045940379</v>
+        <v>0.67764609578088419</v>
       </c>
       <c r="AY3" s="0">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="0">
-        <v>0.61997891956750872</v>
+        <v>0.71085114913570413</v>
       </c>
       <c r="J4" s="0">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="AK4" s="0">
-        <v>0.7333730426020596</v>
+        <v>0.78905594985915462</v>
       </c>
       <c r="AL4" s="0">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="BM4" s="0">
-        <v>0.61722279799392177</v>
+        <v>0.78765458520582809</v>
       </c>
       <c r="BN4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.84826373367253538</v>
+        <v>0.87890192375165155</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0.51309470238209887</v>
+        <v>0.74781636869155166</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="AZ5" s="0">
-        <v>0.70338176044152201</v>
+        <v>0.96180690328870089</v>
       </c>
       <c r="BA5" s="0">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="BH6" s="0">
-        <v>0.75299567864622308</v>
+        <v>0.94940332826969542</v>
       </c>
       <c r="BI6" s="0">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0.87870502248583038</v>
+        <v>0.98288141123843376</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="BB7" s="0">
-        <v>0.74375241230727895</v>
+        <v>0.76253761278865728</v>
       </c>
       <c r="BC7" s="0">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="AE8" s="0">
-        <v>0.57816813369627673</v>
+        <v>0.63293196181144706</v>
       </c>
       <c r="AF8" s="0">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="0">
-        <v>0.70301393539443757</v>
+        <v>0.79591540846234587</v>
       </c>
       <c r="Q9" s="0">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>0.84928950947981141</v>
+        <v>0.98094935249477055</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="0">
-        <v>0.71304757366654137</v>
+        <v>0.79033662383687697</v>
       </c>
       <c r="V10" s="0">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="AZ10" s="0">
-        <v>0.65687268867189563</v>
+        <v>0.99776071290238866</v>
       </c>
       <c r="BA10" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0.53709190850421362</v>
+        <v>0.54952613435773401</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="BA11" s="0">
-        <v>0.74072541265801917</v>
+        <v>0.85915874449924168</v>
       </c>
       <c r="BB11" s="0">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="BG11" s="0">
-        <v>0.51868348807493914</v>
+        <v>0.58797026174475475</v>
       </c>
       <c r="BH11" s="0">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0.53960802421882836</v>
+        <v>0.93644195258038732</v>
       </c>
       <c r="N12" s="0">
         <v>0.99543164108131599</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="AH13" s="0">
-        <v>0.8698347009139672</v>
+        <v>0.94231387175579573</v>
       </c>
       <c r="AI13" s="0">
         <v>0</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.77216797575791485</v>
+        <v>0.84508111148025544</v>
       </c>
       <c r="B14" s="0">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0.77604556052893514</v>
+        <v>0.99543164108131599</v>
       </c>
       <c r="M14" s="0">
         <v>0</v>
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="0">
-        <v>0.57441582558417581</v>
+        <v>0.69469823420101617</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="0">
-        <v>0.52496536649910186</v>
+        <v>0.70010691240903444</v>
       </c>
       <c r="AA15" s="0">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="0">
-        <v>0.50349607971785426</v>
+        <v>0.86095216675967412</v>
       </c>
       <c r="Y16" s="0">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="AL16" s="0">
-        <v>0.84494078763214953</v>
+        <v>0.89322858812677075</v>
       </c>
       <c r="AM16" s="0">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>0.5613242778468408</v>
+        <v>0.66472836737092811</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
@@ -3478,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>0.51053575570270326</v>
+        <v>0.80991403901495462</v>
       </c>
       <c r="T17" s="0">
-        <v>0.58468881179813215</v>
+        <v>0.71784950176734696</v>
       </c>
       <c r="U17" s="0">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="AU18" s="0">
-        <v>0.71008432681732225</v>
+        <v>0.82031973526688295</v>
       </c>
       <c r="AV18" s="0">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="AV19" s="0">
-        <v>0.64874221867672144</v>
+        <v>0.70545819884801575</v>
       </c>
       <c r="AW19" s="0">
         <v>0</v>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="0">
-        <v>0.56850088007182298</v>
+        <v>0.59403406612390064</v>
       </c>
       <c r="AL21" s="0">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="BC21" s="0">
-        <v>0.52701662707711261</v>
+        <v>0.80896804346147433</v>
       </c>
       <c r="BD21" s="0">
         <v>0</v>
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="BI22" s="0">
-        <v>0.73117271678645346</v>
+        <v>0.97132398272717335</v>
       </c>
       <c r="BJ22" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0.61969033620159664</v>
+        <v>0.69664062421945228</v>
       </c>
       <c r="V23" s="0">
         <v>0</v>
@@ -4837,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="BH23" s="0">
-        <v>0.56284210299346871</v>
+        <v>0.95536144213237484</v>
       </c>
       <c r="BI23" s="0">
         <v>0</v>
@@ -4956,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="AE24" s="0">
-        <v>0.81552797395583765</v>
+        <v>0.93641636035234677</v>
       </c>
       <c r="AF24" s="0">
         <v>0</v>
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="0">
-        <v>0.59171338964935072</v>
+        <v>0.97984892088967213</v>
       </c>
       <c r="AK24" s="0">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="AF25" s="0">
-        <v>0.75188875432561542</v>
+        <v>0.97089257745458335</v>
       </c>
       <c r="AG25" s="0">
         <v>0</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="BP25" s="0">
-        <v>0.79162428669418206</v>
+        <v>0.82105522185639024</v>
       </c>
     </row>
     <row r="26">
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="BG26" s="0">
-        <v>0.66604169233710309</v>
+        <v>0.93137444715586848</v>
       </c>
       <c r="BH26" s="0">
         <v>0</v>
@@ -5652,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="BE27" s="0">
-        <v>0.58771430738309205</v>
+        <v>0.83756203341115487</v>
       </c>
       <c r="BF27" s="0">
         <v>0</v>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="0">
-        <v>0.51455870895364586</v>
+        <v>0.65317033337004582</v>
       </c>
       <c r="T28" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0.51280578168854307</v>
+        <v>0.68974511531890392</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="0">
-        <v>0.53448788287440796</v>
+        <v>0.68551797710971951</v>
       </c>
       <c r="AM29" s="0">
         <v>0</v>
@@ -6061,10 +6061,10 @@
         <v>0</v>
       </c>
       <c r="BD29" s="0">
-        <v>0.83566881517130143</v>
+        <v>0.98990017832572752</v>
       </c>
       <c r="BE29" s="0">
-        <v>0.74914445626852644</v>
+        <v>0.8774687743440478</v>
       </c>
       <c r="BF29" s="0">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="0">
-        <v>0.5507372866457243</v>
+        <v>0.69614633241654533</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="AS30" s="0">
-        <v>0.57673725226937678</v>
+        <v>0.86629538302205344</v>
       </c>
       <c r="AT30" s="0">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.74293538847209906</v>
+        <v>0.94948644699603313</v>
       </c>
       <c r="AD31" s="0">
         <v>0</v>
@@ -6517,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="0">
-        <v>0.58920086927267468</v>
+        <v>0.63460423083447515</v>
       </c>
       <c r="C32" s="0">
         <v>0</v>
@@ -6544,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="0">
-        <v>0.52127833324594919</v>
+        <v>0.62804651825040458</v>
       </c>
       <c r="L32" s="0">
         <v>0</v>
@@ -6574,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="0">
-        <v>0.65754787346552324</v>
+        <v>0.85247417288815075</v>
       </c>
       <c r="V32" s="0">
         <v>0</v>
@@ -6589,7 +6589,7 @@
         <v>0.97089257745458335</v>
       </c>
       <c r="Z32" s="0">
-        <v>0.69806153292968598</v>
+        <v>0.69897974449537337</v>
       </c>
       <c r="AA32" s="0">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>0.55367994921451547</v>
+        <v>0.90758270293542631</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6861,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="AV33" s="0">
-        <v>0.86795481385941275</v>
+        <v>0.91589429344529938</v>
       </c>
       <c r="AW33" s="0">
         <v>0</v>
@@ -7124,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="BO34" s="0">
-        <v>0.58350023333529011</v>
+        <v>0.88807031419399052</v>
       </c>
       <c r="BP34" s="0">
         <v>0</v>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="0">
-        <v>0.89456050165688383</v>
+        <v>0.98023032139934574</v>
       </c>
       <c r="O35" s="0">
         <v>0</v>
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="0">
-        <v>0.51524685374917412</v>
+        <v>0.72056312412182266</v>
       </c>
       <c r="W35" s="0">
         <v>0</v>
@@ -7437,10 +7437,10 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0.64644406473093297</v>
+        <v>0.99953580854119994</v>
       </c>
       <c r="AI36" s="0">
-        <v>0.62564050105963842</v>
+        <v>0.74808838599705618</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="BP38" s="0">
-        <v>0.90643516944912061</v>
+        <v>0.92577633501814638</v>
       </c>
     </row>
     <row r="39">
@@ -7959,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="0">
-        <v>0.57945562553969421</v>
+        <v>0.92542940240141391</v>
       </c>
       <c r="C39" s="0">
         <v>0</v>
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="0">
-        <v>0.61294813643540924</v>
+        <v>0.7214577955350614</v>
       </c>
       <c r="W39" s="0">
         <v>0</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="AI39" s="0">
-        <v>0.74853008385995179</v>
+        <v>0.8052876965074085</v>
       </c>
       <c r="AJ39" s="0">
         <v>0</v>
@@ -8243,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="0">
-        <v>0.79236321227283302</v>
+        <v>0.99645318373614367</v>
       </c>
       <c r="AC40" s="0">
         <v>0</v>
@@ -8261,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="AH40" s="0">
-        <v>0.61312407089730636</v>
+        <v>0.6945334988988312</v>
       </c>
       <c r="AI40" s="0">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="AZ40" s="0">
-        <v>0.73666499987534895</v>
+        <v>0.96364179143561934</v>
       </c>
       <c r="BA40" s="0">
         <v>0</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="0">
-        <v>0.62948906463639753</v>
+        <v>0.97129321323421669</v>
       </c>
       <c r="E41" s="0">
         <v>0</v>
@@ -8440,7 +8440,7 @@
         <v>0</v>
       </c>
       <c r="Y41" s="0">
-        <v>0.8215284326162422</v>
+        <v>0.8328844194955427</v>
       </c>
       <c r="Z41" s="0">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="AT41" s="0">
-        <v>0.55320359564838029</v>
+        <v>0.90559163668805376</v>
       </c>
       <c r="AU41" s="0">
         <v>0</v>
@@ -8688,7 +8688,7 @@
         <v>0</v>
       </c>
       <c r="AM42" s="0">
-        <v>0.66129900632440863</v>
+        <v>0.79908669224985795</v>
       </c>
       <c r="AN42" s="0">
         <v>0</v>
@@ -8715,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="AV42" s="0">
-        <v>0.74352648616129557</v>
+        <v>0.80834794679972477</v>
       </c>
       <c r="AW42" s="0">
         <v>0</v>
@@ -8739,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="BD42" s="0">
-        <v>0.78285975539255781</v>
+        <v>0.8734567898252269</v>
       </c>
       <c r="BE42" s="0">
         <v>0</v>
@@ -8795,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="0">
-        <v>0.85715339736494256</v>
+        <v>0.90839485315536073</v>
       </c>
       <c r="G43" s="0">
         <v>0</v>
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="0">
-        <v>0.54052914538816776</v>
+        <v>0.55233582083180544</v>
       </c>
       <c r="S43" s="0">
         <v>0</v>
@@ -8846,7 +8846,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="0">
-        <v>0.53026579359368786</v>
+        <v>0.76904390753192875</v>
       </c>
       <c r="X43" s="0">
         <v>0</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0.67910327912620472</v>
+        <v>0.80496736221562348</v>
       </c>
       <c r="AS43" s="0">
         <v>0</v>
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="0">
-        <v>0.54433552869713264</v>
+        <v>0.91219500714499069</v>
       </c>
       <c r="AK44" s="0">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>0</v>
       </c>
       <c r="AO44" s="0">
-        <v>0.59142929651315612</v>
+        <v>0.94950587406496845</v>
       </c>
       <c r="AP44" s="0">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="BH44" s="0">
-        <v>0.52279088368421012</v>
+        <v>0.70437070108865507</v>
       </c>
       <c r="BI44" s="0">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="0">
-        <v>0.76718148401486774</v>
+        <v>0.78798596958759504</v>
       </c>
       <c r="Q45" s="0">
         <v>0</v>
@@ -9273,7 +9273,7 @@
         <v>0</v>
       </c>
       <c r="AB45" s="0">
-        <v>0.58858083046911269</v>
+        <v>0.84572294835804041</v>
       </c>
       <c r="AC45" s="0">
         <v>0</v>
@@ -9455,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="0">
-        <v>0.77129321112146576</v>
+        <v>0.85844692304560866</v>
       </c>
       <c r="U46" s="0">
         <v>0</v>
@@ -9604,7 +9604,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.50754676966024881</v>
+        <v>0.92268783182265934</v>
       </c>
       <c r="B47" s="0">
         <v>0</v>
@@ -9846,7 +9846,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="0">
-        <v>0.73821299470500812</v>
+        <v>0.86446211315092492</v>
       </c>
       <c r="N48" s="0">
         <v>0</v>
@@ -9942,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="AS48" s="0">
-        <v>0.63565034786716335</v>
+        <v>0.9122338742146413</v>
       </c>
       <c r="AT48" s="0">
         <v>0</v>
@@ -10034,7 +10034,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="0">
-        <v>0.55267528522495324</v>
+        <v>0.86467417129555357</v>
       </c>
       <c r="H49" s="0">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="AI49" s="0">
-        <v>0.62374382063414258</v>
+        <v>0.90833664810493941</v>
       </c>
       <c r="AJ49" s="0">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="BN49" s="0">
-        <v>0.70532920641109542</v>
+        <v>0.99029109191273013</v>
       </c>
       <c r="BO49" s="0">
         <v>0</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="0">
-        <v>0.58905534426241024</v>
+        <v>0.76755012624316721</v>
       </c>
       <c r="Q50" s="0">
         <v>0</v>
@@ -10399,7 +10399,7 @@
         <v>0</v>
       </c>
       <c r="BH50" s="0">
-        <v>0.66967521591875967</v>
+        <v>0.98808001568417447</v>
       </c>
       <c r="BI50" s="0">
         <v>0</v>
@@ -10497,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="X51" s="0">
-        <v>0.52264401730846566</v>
+        <v>0.68952866932952084</v>
       </c>
       <c r="Y51" s="0">
         <v>0</v>
@@ -10512,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="0">
-        <v>0.6792259339195752</v>
+        <v>0.86411412503237417</v>
       </c>
       <c r="AD51" s="0">
         <v>0</v>
@@ -10599,10 +10599,10 @@
         <v>0</v>
       </c>
       <c r="BF51" s="0">
-        <v>0.73937049046539127</v>
+        <v>0.98859331949123996</v>
       </c>
       <c r="BG51" s="0">
-        <v>0.66128054825989979</v>
+        <v>0.89701113987582382</v>
       </c>
       <c r="BH51" s="0">
         <v>0</v>
@@ -10637,7 +10637,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="0">
-        <v>0.52314307771588853</v>
+        <v>0.6502169357733939</v>
       </c>
       <c r="C52" s="0">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="0">
-        <v>0.93728528382272158</v>
+        <v>0.95406578230323058</v>
       </c>
       <c r="U52" s="0">
         <v>0</v>
@@ -10712,7 +10712,7 @@
         <v>0</v>
       </c>
       <c r="AA52" s="0">
-        <v>0.62988718534296795</v>
+        <v>0.85367431233771485</v>
       </c>
       <c r="AB52" s="0">
         <v>0</v>
@@ -10987,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="AX53" s="0">
-        <v>0.62011349245499381</v>
+        <v>0.65932608583407104</v>
       </c>
       <c r="AY53" s="0">
         <v>0</v>
@@ -11026,10 +11026,10 @@
         <v>0</v>
       </c>
       <c r="BK53" s="0">
-        <v>0.60851145848662891</v>
+        <v>0.96074487213587667</v>
       </c>
       <c r="BL53" s="0">
-        <v>0.58889663654755919</v>
+        <v>0.87866143527047269</v>
       </c>
       <c r="BM53" s="0">
         <v>0</v>
@@ -11079,7 +11079,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="0">
-        <v>0.89950355594378628</v>
+        <v>0.92701258394531894</v>
       </c>
       <c r="M54" s="0">
         <v>0</v>
@@ -11121,7 +11121,7 @@
         <v>0</v>
       </c>
       <c r="Z54" s="0">
-        <v>0.60261873831196167</v>
+        <v>0.70377855153826707</v>
       </c>
       <c r="AA54" s="0">
         <v>0</v>
@@ -11273,7 +11273,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="0">
-        <v>0.55707902519244179</v>
+        <v>0.7833586403172732</v>
       </c>
       <c r="I55" s="0">
         <v>0</v>
@@ -11458,7 +11458,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.50806858717671255</v>
+        <v>0.66058247138005455</v>
       </c>
       <c r="B56" s="0">
         <v>0</v>
@@ -11503,7 +11503,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="0">
-        <v>0.74704174055744743</v>
+        <v>0.76992351267690928</v>
       </c>
       <c r="Q56" s="0">
         <v>0</v>
@@ -11942,7 +11942,7 @@
         <v>0</v>
       </c>
       <c r="Y58" s="0">
-        <v>0.75266284089091262</v>
+        <v>0.88557596239509229</v>
       </c>
       <c r="Z58" s="0">
         <v>0</v>
@@ -12193,7 +12193,7 @@
         <v>0</v>
       </c>
       <c r="AN59" s="0">
-        <v>0.84447281126656049</v>
+        <v>0.92641690022578305</v>
       </c>
       <c r="AO59" s="0">
         <v>0</v>
@@ -12253,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0.54021537854825752</v>
+        <v>0.99687176487610973</v>
       </c>
       <c r="BI59" s="0">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>0.85820839601671906</v>
+        <v>0.93015360902199951</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12683,7 +12683,7 @@
         <v>0</v>
       </c>
       <c r="BN61" s="0">
-        <v>0.54116189136536774</v>
+        <v>0.78232612711037031</v>
       </c>
       <c r="BO61" s="0">
         <v>0</v>
@@ -12751,7 +12751,7 @@
         <v>0</v>
       </c>
       <c r="T62" s="0">
-        <v>0.59202159059228388</v>
+        <v>0.72000008925330827</v>
       </c>
       <c r="U62" s="0">
         <v>0</v>
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0.84557997344870639</v>
+        <v>0.93340805963783291</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -12895,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="BP62" s="0">
-        <v>0.55691983895408637</v>
+        <v>0.68605431504423997</v>
       </c>
     </row>
     <row r="63">
@@ -12915,7 +12915,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="0">
-        <v>0.75682124925165695</v>
+        <v>0.82561280603923382</v>
       </c>
       <c r="G63" s="0">
         <v>0</v>
@@ -13008,7 +13008,7 @@
         <v>0</v>
       </c>
       <c r="AK63" s="0">
-        <v>0.72571731282114027</v>
+        <v>0.75809762260598612</v>
       </c>
       <c r="AL63" s="0">
         <v>0</v>
@@ -13017,7 +13017,7 @@
         <v>0</v>
       </c>
       <c r="AN63" s="0">
-        <v>0.86147405409976952</v>
+        <v>0.95830223021895644</v>
       </c>
       <c r="AO63" s="0">
         <v>0</v>
@@ -13029,7 +13029,7 @@
         <v>0</v>
       </c>
       <c r="AR63" s="0">
-        <v>0.66727429411297878</v>
+        <v>0.77365135459423506</v>
       </c>
       <c r="AS63" s="0">
         <v>0</v>
@@ -13065,7 +13065,7 @@
         <v>0</v>
       </c>
       <c r="BD63" s="0">
-        <v>0.60964168501635596</v>
+        <v>0.93581938839847756</v>
       </c>
       <c r="BE63" s="0">
         <v>0</v>
@@ -13160,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="S64" s="0">
-        <v>0.51619325715087472</v>
+        <v>0.68288043912005181</v>
       </c>
       <c r="T64" s="0">
         <v>0</v>
@@ -13223,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="AN64" s="0">
-        <v>0.68150330345534238</v>
+        <v>0.81366523784002476</v>
       </c>
       <c r="AO64" s="0">
         <v>0</v>
@@ -13274,7 +13274,7 @@
         <v>0</v>
       </c>
       <c r="BE64" s="0">
-        <v>0.51718189544701798</v>
+        <v>0.8526953983065555</v>
       </c>
       <c r="BF64" s="0">
         <v>0</v>
@@ -13312,7 +13312,7 @@
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>0.54028088441909405</v>
+        <v>0.6217602196782277</v>
       </c>
       <c r="B65" s="0">
         <v>0</v>
@@ -13584,7 +13584,7 @@
         <v>0</v>
       </c>
       <c r="W66" s="0">
-        <v>0.63607892036022529</v>
+        <v>0.66784553038080019</v>
       </c>
       <c r="X66" s="0">
         <v>0</v>
@@ -13748,10 +13748,10 @@
         <v>0</v>
       </c>
       <c r="I67" s="0">
-        <v>0.80155077654604323</v>
+        <v>0.88090956476533355</v>
       </c>
       <c r="J67" s="0">
-        <v>0.75672465403905276</v>
+        <v>0.95107946012329458</v>
       </c>
       <c r="K67" s="0">
         <v>0</v>
@@ -13787,10 +13787,10 @@
         <v>0</v>
       </c>
       <c r="V67" s="0">
-        <v>0.56636488814201358</v>
+        <v>0.86832884537665522</v>
       </c>
       <c r="W67" s="0">
-        <v>0.7088261679716038</v>
+        <v>0.94965037013812514</v>
       </c>
       <c r="X67" s="0">
         <v>0</v>
